--- a/LTEXCEL/Uploads/Excels/KhachHang.xlsx
+++ b/LTEXCEL/Uploads/Excels/KhachHang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBBC7D9-9CB3-44EE-862A-28E5BFE76081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FB9E1-FC10-4588-AF53-44C051E07304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CD3D0C9-71FF-4A3A-8F0D-1EDC36F9E92F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9BB37FC-605F-4610-B2AF-30139069B2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,55 +34,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Id</t>
+    <t>100</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>101</t>
   </si>
   <si>
-    <t>Tran A</t>
+    <t>Nguyen N</t>
   </si>
   <si>
-    <t>Tran B</t>
-  </si>
-  <si>
-    <t>Tran C</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>Tran M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,112 +403,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A12CF-C726-4D50-928C-AA9361FE52D7}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245093FF-29E8-4A86-B478-66657C39EE58}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2000</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2001</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>